--- a/cypress/fixtures/vinakeyword1.xlsx
+++ b/cypress/fixtures/vinakeyword1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>Template content</t>
   </si>
   <si>
-    <t>Amphibol</t>
+    <t xml:space="preserve"> Amphibol</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
